--- a/medicine/Enfance/Johanna_Spyri/Johanna_Spyri.xlsx
+++ b/medicine/Enfance/Johanna_Spyri/Johanna_Spyri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johanna Spyri (née Johanna Heusser le 12 juin 1827 à Hirzel, canton de Zurich et morte le 7 juillet 1901 à Zurich) est une femme de lettres suisse alémanique, auteur d'histoires pour enfants et créatrice du personnage de Heidi.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Johanna Spyri est la quatrième d'une famille de six enfants. Son père, Johann Jakob Heusser (1783-1859), est médecin, chirurgien et soigne les malades mentaux. Sa mère, Meta Schweizer (1797-1876), est la fille de Diethelm Schweizer, pasteur de Hirzel, compositeur de cantiques et écrivain.
 Johanna suit sa scolarité primaire à Hirzel et reçoit des cours particuliers du pasteur Salomon Tobler à la cure, entre 1833 et 1841. De 1841 à 1843, elle poursuit sa formation à Zurich. Elle y apprend notamment les langues modernes et le piano. C'est à cette époque qu'elle se lie d'amitié avec la peintre suisse Anna Susanna Fries (de) (1827-1901), qui fait son portrait en 1848, et des frère et sœur écrivains Conrad Ferdinand Meyer et Betsy Meyer (de).
@@ -548,7 +562,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>De 1871 jusqu'à sa mort, elle publie 31 livres, 27 livres d'histoires et 4 brochures, des contes, dont l'histoire de la jeune fillette Heidi, en deux volumes publiés en 1880 et 1881, mondialement connue et traduite en plus de cinquante langues, fait partie des plus célèbres récits de la littérature d'enfance et de jeunesse.
 Liste non exhaustive des œuvres de Johanna Spyri:
@@ -587,9 +603,11 @@
           <t>Reconnaissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À l'occasion du 100e anniversaire de sa mort, une pièce de monnaie commémorative suisse lui est dédiée[1] et un timbre en 1951[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'occasion du 100e anniversaire de sa mort, une pièce de monnaie commémorative suisse lui est dédiée et un timbre en 1951.
 </t>
         </is>
       </c>
